--- a/Documents/块数据结构定义.xlsx
+++ b/Documents/块数据结构定义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>两位数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>黄色终点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人出生地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,6 +503,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
